--- a/data/pca/factorExposure/factorExposure_2012-10-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-10-08.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001636793327516695</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001883943479372286</v>
+      </c>
+      <c r="C2">
+        <v>0.02833171653081674</v>
+      </c>
+      <c r="D2">
+        <v>0.005333381077407418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>9.909973856635922e-05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006924100068038825</v>
+      </c>
+      <c r="C4">
+        <v>0.08274982679571125</v>
+      </c>
+      <c r="D4">
+        <v>0.07213452732686221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0004356105134168708</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01408494518289931</v>
+      </c>
+      <c r="C6">
+        <v>0.1136977575272768</v>
+      </c>
+      <c r="D6">
+        <v>0.0246343328824647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0004409269394036857</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004965515769900783</v>
+      </c>
+      <c r="C7">
+        <v>0.05802600372839099</v>
+      </c>
+      <c r="D7">
+        <v>0.03379692048089516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0006089943965257102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005933674218870083</v>
+      </c>
+      <c r="C8">
+        <v>0.03563255561101233</v>
+      </c>
+      <c r="D8">
+        <v>0.03955575833400354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.00246750909499022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005072410990961462</v>
+      </c>
+      <c r="C9">
+        <v>0.07017607000558755</v>
+      </c>
+      <c r="D9">
+        <v>0.07692041576744849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.001636996140330719</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005250007478440074</v>
+      </c>
+      <c r="C10">
+        <v>0.05561491998856308</v>
+      </c>
+      <c r="D10">
+        <v>-0.1932239900744524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.003072719144417522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005543770939269026</v>
+      </c>
+      <c r="C11">
+        <v>0.07905516936156828</v>
+      </c>
+      <c r="D11">
+        <v>0.06534101800809534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.00147623645656364</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004070838575718779</v>
+      </c>
+      <c r="C12">
+        <v>0.06434703389713037</v>
+      </c>
+      <c r="D12">
+        <v>0.05197915952697021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002820492158869758</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008191000071781997</v>
+      </c>
+      <c r="C13">
+        <v>0.0667513509503728</v>
+      </c>
+      <c r="D13">
+        <v>0.06356911817316158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.001938660005331017</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0006183808120394081</v>
+      </c>
+      <c r="C14">
+        <v>0.04228650778515736</v>
+      </c>
+      <c r="D14">
+        <v>0.01180922230195942</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0003053469748772584</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005824862598664056</v>
+      </c>
+      <c r="C15">
+        <v>0.04048133765305972</v>
+      </c>
+      <c r="D15">
+        <v>0.0285745424956358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.000678504822513818</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004963075338916358</v>
+      </c>
+      <c r="C16">
+        <v>0.06406132930448691</v>
+      </c>
+      <c r="D16">
+        <v>0.0579884640833663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0005445031611641205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008755950059494789</v>
+      </c>
+      <c r="C20">
+        <v>0.06315692027586205</v>
+      </c>
+      <c r="D20">
+        <v>0.05124826859342885</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005853521740930892</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009127043078102255</v>
+      </c>
+      <c r="C21">
+        <v>0.01904195829989803</v>
+      </c>
+      <c r="D21">
+        <v>0.04370751668519735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.02336791375008619</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007135419131267206</v>
+      </c>
+      <c r="C22">
+        <v>0.08562885032456599</v>
+      </c>
+      <c r="D22">
+        <v>0.1265960409453917</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.02315321330872682</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006948198787564723</v>
+      </c>
+      <c r="C23">
+        <v>0.0860839181246788</v>
+      </c>
+      <c r="D23">
+        <v>0.1275061968867728</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.002480223855175394</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005532123723588317</v>
+      </c>
+      <c r="C24">
+        <v>0.07566165893600371</v>
+      </c>
+      <c r="D24">
+        <v>0.06891381449183828</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.004275622490337398</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003092898370293903</v>
+      </c>
+      <c r="C25">
+        <v>0.07786832873038879</v>
+      </c>
+      <c r="D25">
+        <v>0.06704208284240978</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.003435469085896832</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003584375877109528</v>
+      </c>
+      <c r="C26">
+        <v>0.03873354476360383</v>
+      </c>
+      <c r="D26">
+        <v>0.02543721663074725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.00764425556275556</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001633654489061699</v>
+      </c>
+      <c r="C28">
+        <v>0.1042735744606408</v>
+      </c>
+      <c r="D28">
+        <v>-0.3228886822135334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001034725587482138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002508377465711672</v>
+      </c>
+      <c r="C29">
+        <v>0.04812657855586098</v>
+      </c>
+      <c r="D29">
+        <v>0.01044239796763312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.005660588647949385</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009459840592116861</v>
+      </c>
+      <c r="C30">
+        <v>0.1409017919169687</v>
+      </c>
+      <c r="D30">
+        <v>0.1092630375046123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.001307316947289402</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006248088292600473</v>
+      </c>
+      <c r="C31">
+        <v>0.04324842738733702</v>
+      </c>
+      <c r="D31">
+        <v>0.03321416442948912</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.001986114189156104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003434396815329883</v>
+      </c>
+      <c r="C32">
+        <v>0.03923051693680202</v>
+      </c>
+      <c r="D32">
+        <v>0.0254335164464143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.001495917410863758</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008997861233855552</v>
+      </c>
+      <c r="C33">
+        <v>0.08788970224389284</v>
+      </c>
+      <c r="D33">
+        <v>0.0661493133825248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.003478925361029067</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004160126546973908</v>
+      </c>
+      <c r="C34">
+        <v>0.05767973261685166</v>
+      </c>
+      <c r="D34">
+        <v>0.05891213215638502</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.0008331198990842678</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005216112403170715</v>
+      </c>
+      <c r="C35">
+        <v>0.04027569964397033</v>
+      </c>
+      <c r="D35">
+        <v>0.02138543012214757</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.005410130305579353</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001615384541198187</v>
+      </c>
+      <c r="C36">
+        <v>0.02414581748925399</v>
+      </c>
+      <c r="D36">
+        <v>0.02669812138952066</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-5.257138360364489e-05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009224617941151158</v>
+      </c>
+      <c r="C38">
+        <v>0.0376216586913395</v>
+      </c>
+      <c r="D38">
+        <v>0.01540557015393419</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01326253931322854</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001576455455568614</v>
+      </c>
+      <c r="C39">
+        <v>0.1130930073899481</v>
+      </c>
+      <c r="D39">
+        <v>0.07759671462209884</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.008005307088846276</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003718083115538241</v>
+      </c>
+      <c r="C40">
+        <v>0.09052739233524752</v>
+      </c>
+      <c r="D40">
+        <v>0.01998872210896547</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0006948674133683161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007226029939206648</v>
+      </c>
+      <c r="C41">
+        <v>0.03889881003236941</v>
+      </c>
+      <c r="D41">
+        <v>0.03993518451163148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.002510746364207893</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003878716539665423</v>
+      </c>
+      <c r="C43">
+        <v>0.05291236183152482</v>
+      </c>
+      <c r="D43">
+        <v>0.02803703446302577</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.01391739644277534</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002724377359439953</v>
+      </c>
+      <c r="C44">
+        <v>0.1043375520266541</v>
+      </c>
+      <c r="D44">
+        <v>0.07006967541596641</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.0008927533671895934</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001585680635358622</v>
+      </c>
+      <c r="C46">
+        <v>0.03242861711249781</v>
+      </c>
+      <c r="D46">
+        <v>0.03506562524407381</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.001532231474608817</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002062482910967562</v>
+      </c>
+      <c r="C47">
+        <v>0.03467914488854922</v>
+      </c>
+      <c r="D47">
+        <v>0.02343979271852742</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003085875360687292</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006478049407551412</v>
+      </c>
+      <c r="C48">
+        <v>0.02981200208039647</v>
+      </c>
+      <c r="D48">
+        <v>0.03755031515845263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.006759465423760562</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01752316720427495</v>
+      </c>
+      <c r="C49">
+        <v>0.1900549361685317</v>
+      </c>
+      <c r="D49">
+        <v>0.006819374269122355</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0004475377526077064</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.00351522346253543</v>
+      </c>
+      <c r="C50">
+        <v>0.04211603011233934</v>
+      </c>
+      <c r="D50">
+        <v>0.03979928124877657</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0001890139913579627</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004897133188273008</v>
+      </c>
+      <c r="C51">
+        <v>0.02588878778003519</v>
+      </c>
+      <c r="D51">
+        <v>0.02258696730064018</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.002549578690355711</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02124877093002644</v>
+      </c>
+      <c r="C53">
+        <v>0.1715662049460912</v>
+      </c>
+      <c r="D53">
+        <v>0.02235053615157393</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.002047911851613798</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.00906359373623113</v>
+      </c>
+      <c r="C54">
+        <v>0.05468192410419771</v>
+      </c>
+      <c r="D54">
+        <v>0.04349024576942585</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.003130807656638336</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009478951514188268</v>
+      </c>
+      <c r="C55">
+        <v>0.1076374043463155</v>
+      </c>
+      <c r="D55">
+        <v>0.04082799953768079</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.004867676489421505</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02031349170864172</v>
+      </c>
+      <c r="C56">
+        <v>0.1761660289473256</v>
+      </c>
+      <c r="D56">
+        <v>0.01417820897606293</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.003521040733026351</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01892317791619545</v>
+      </c>
+      <c r="C58">
+        <v>0.1037249044724848</v>
+      </c>
+      <c r="D58">
+        <v>0.07445267292174076</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.007043221725653625</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.0102309065620335</v>
+      </c>
+      <c r="C59">
+        <v>0.1691415845629818</v>
+      </c>
+      <c r="D59">
+        <v>-0.3407818672005039</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.001502672626878303</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.0249887247780299</v>
+      </c>
+      <c r="C60">
+        <v>0.2260049046063768</v>
+      </c>
+      <c r="D60">
+        <v>0.01841908219166566</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01209410454953257</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.00191263673348786</v>
+      </c>
+      <c r="C61">
+        <v>0.09431054932995235</v>
+      </c>
+      <c r="D61">
+        <v>0.05806174890422867</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1551271012089039</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1493836963059418</v>
+      </c>
+      <c r="C62">
+        <v>0.09708192005153839</v>
+      </c>
+      <c r="D62">
+        <v>0.02529692966332887</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001054547472396036</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006267738532183498</v>
+      </c>
+      <c r="C63">
+        <v>0.05280262703692905</v>
+      </c>
+      <c r="D63">
+        <v>0.03404822462004488</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.002336739442640001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01564053671063921</v>
+      </c>
+      <c r="C64">
+        <v>0.1046808458134102</v>
+      </c>
+      <c r="D64">
+        <v>0.05768169241063872</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.00320377012750522</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01766556337830162</v>
+      </c>
+      <c r="C65">
+        <v>0.1217654626385358</v>
+      </c>
+      <c r="D65">
+        <v>0.02746490861405785</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.00371894000211729</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.0131216538809479</v>
+      </c>
+      <c r="C66">
+        <v>0.1610776131173303</v>
+      </c>
+      <c r="D66">
+        <v>0.1090984620002173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.002526127898099746</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01545271929715689</v>
+      </c>
+      <c r="C67">
+        <v>0.06970840421617729</v>
+      </c>
+      <c r="D67">
+        <v>0.02655916669696928</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.00586376034820341</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001066101819888202</v>
+      </c>
+      <c r="C68">
+        <v>0.08685997620309802</v>
+      </c>
+      <c r="D68">
+        <v>-0.256055480743275</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.001014209771333868</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006455621145525057</v>
+      </c>
+      <c r="C69">
+        <v>0.05292165069562323</v>
+      </c>
+      <c r="D69">
+        <v>0.03718638085238356</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.000711233675044667</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002001776198026635</v>
+      </c>
+      <c r="C70">
+        <v>0.005974511831259645</v>
+      </c>
+      <c r="D70">
+        <v>0.0004150285120601831</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001284651622190445</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.00574415767159251</v>
+      </c>
+      <c r="C71">
+        <v>0.09154338510155678</v>
+      </c>
+      <c r="D71">
+        <v>-0.3003165592506396</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.003585501985132594</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01635987468250526</v>
+      </c>
+      <c r="C72">
+        <v>0.1570894504088024</v>
+      </c>
+      <c r="D72">
+        <v>0.01212625996750623</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.005711667017580656</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03130194467416191</v>
+      </c>
+      <c r="C73">
+        <v>0.2824469840343815</v>
+      </c>
+      <c r="D73">
+        <v>0.0553611255520958</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005509398128353517</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001933324704844676</v>
+      </c>
+      <c r="C74">
+        <v>0.1015792717292656</v>
+      </c>
+      <c r="D74">
+        <v>0.03772739456325967</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.003533199524934477</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01053755658139821</v>
+      </c>
+      <c r="C75">
+        <v>0.1221612410412317</v>
+      </c>
+      <c r="D75">
+        <v>0.02366071484675724</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.008831550591978217</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02229761189728837</v>
+      </c>
+      <c r="C76">
+        <v>0.1471569140245125</v>
+      </c>
+      <c r="D76">
+        <v>0.05906592795299714</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001069532558656218</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02107650065459454</v>
+      </c>
+      <c r="C77">
+        <v>0.1124730617096039</v>
+      </c>
+      <c r="D77">
+        <v>0.05238522306462819</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001162324737868359</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01470648563322454</v>
+      </c>
+      <c r="C78">
+        <v>0.09631851801393755</v>
+      </c>
+      <c r="D78">
+        <v>0.08043845181463623</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.0225568828433702</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03820434465396712</v>
+      </c>
+      <c r="C79">
+        <v>0.1562897136806045</v>
+      </c>
+      <c r="D79">
+        <v>0.0325156281511712</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.006749340536999804</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01003791216981704</v>
+      </c>
+      <c r="C80">
+        <v>0.03765171611304644</v>
+      </c>
+      <c r="D80">
+        <v>0.0317820150867362</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.001233800595983344</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01573160600308415</v>
+      </c>
+      <c r="C81">
+        <v>0.1299525353596706</v>
+      </c>
+      <c r="D81">
+        <v>0.03740755091296375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.00527803379995738</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.0198945609631204</v>
+      </c>
+      <c r="C82">
+        <v>0.1389275178359571</v>
+      </c>
+      <c r="D82">
+        <v>0.03779683935974727</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.00483347391888015</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01122199740147809</v>
+      </c>
+      <c r="C83">
+        <v>0.0618426062351215</v>
+      </c>
+      <c r="D83">
+        <v>0.04482872565094141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01112097913287207</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01206605625574601</v>
+      </c>
+      <c r="C84">
+        <v>0.03779563178196837</v>
+      </c>
+      <c r="D84">
+        <v>-0.003579459895850913</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01438329278465829</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02900222076004982</v>
+      </c>
+      <c r="C85">
+        <v>0.1246583208998632</v>
+      </c>
+      <c r="D85">
+        <v>0.03939299165338082</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.002993871167838299</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004316323785285386</v>
+      </c>
+      <c r="C86">
+        <v>0.05055088622877935</v>
+      </c>
+      <c r="D86">
+        <v>0.02646605344672246</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.002322601052444874</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01088697770999796</v>
+      </c>
+      <c r="C87">
+        <v>0.1271689639465506</v>
+      </c>
+      <c r="D87">
+        <v>0.07842227481469986</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01072216730516697</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.00299637425536761</v>
+      </c>
+      <c r="C88">
+        <v>0.06333988420968922</v>
+      </c>
+      <c r="D88">
+        <v>0.02687300784681371</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.0118661086680413</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001898984782189267</v>
+      </c>
+      <c r="C89">
+        <v>0.1395621653523198</v>
+      </c>
+      <c r="D89">
+        <v>-0.3179931774889652</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.003754591491064344</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006716479725155081</v>
+      </c>
+      <c r="C90">
+        <v>0.12076309159636</v>
+      </c>
+      <c r="D90">
+        <v>-0.3130217544736124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0004358606479222342</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01028302179246692</v>
+      </c>
+      <c r="C91">
+        <v>0.09950195192600696</v>
+      </c>
+      <c r="D91">
+        <v>0.0245185131547524</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.008892825951634993</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.000566421209798859</v>
+      </c>
+      <c r="C92">
+        <v>0.1344227262317773</v>
+      </c>
+      <c r="D92">
+        <v>-0.3217139004030692</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.003020412560465509</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.00424780623633786</v>
+      </c>
+      <c r="C93">
+        <v>0.1053834781556487</v>
+      </c>
+      <c r="D93">
+        <v>-0.2980139672965939</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.003493505281593729</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.021444326852876</v>
+      </c>
+      <c r="C94">
+        <v>0.14272859139976</v>
+      </c>
+      <c r="D94">
+        <v>0.05213141895915609</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.001945264877821586</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01635354805281481</v>
+      </c>
+      <c r="C95">
+        <v>0.1215375597475979</v>
+      </c>
+      <c r="D95">
+        <v>0.06545386650985754</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.006743504392245572</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03672656056830224</v>
+      </c>
+      <c r="C97">
+        <v>0.2259843656556307</v>
+      </c>
+      <c r="D97">
+        <v>0.001650232518767409</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.004099074003214012</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03745784586766924</v>
+      </c>
+      <c r="C98">
+        <v>0.2576496474706292</v>
+      </c>
+      <c r="D98">
+        <v>0.02992129131286905</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9860113443617633</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9813947899875611</v>
+      </c>
+      <c r="C99">
+        <v>-0.1189095396488113</v>
+      </c>
+      <c r="D99">
+        <v>-0.02377389875364203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.0009635487333251511</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002551280659730443</v>
+      </c>
+      <c r="C101">
+        <v>0.04825277593305327</v>
+      </c>
+      <c r="D101">
+        <v>0.01084316778939946</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
